--- a/datos_usuario.xlsx
+++ b/datos_usuario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45.175.236.124</t>
+          <t>45.175.236.125</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45.175.236.124</t>
+          <t>45.175.236.125</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45.175.236.124</t>
+          <t>45.175.236.125</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -517,7 +517,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.175.236.125</t>
+          <t>45.175.236.124</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -537,7 +537,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.175.236.125</t>
+          <t>45.175.236.124</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -557,7 +557,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45.175.236.125</t>
+          <t>45.175.236.124</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -577,39 +577,79 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>192.168.0.21</t>
+          <t>192.168.56.1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45.175.236.125</t>
+          <t>187.187.204.53</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Donaldo</t>
+          <t>Tania</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>192.168.56.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>187.187.204.53</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tania</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>192.168.56.1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>187.187.204.53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>192.168.0.21</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>45.175.236.125</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>45.175.236.124</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Donaldo</t>
         </is>
